--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4920,6 +4920,789 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>detroit-lions</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>chicago-bears</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>135</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-155</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>-335</v>
+      </c>
+      <c r="E168" t="n">
+        <v>260</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>new-orleans-saints</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>190</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-235</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>-210</v>
+      </c>
+      <c r="E170" t="n">
+        <v>175</v>
+      </c>
+      <c r="F170" t="n">
+        <v>12</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>indianapolis-colts</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>135</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-155</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>miami-dolphins</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>carolina-panthers</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>110</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-130</v>
+      </c>
+      <c r="F172" t="n">
+        <v>12</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>new-england-patriots</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>tennessee-titans</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>-265</v>
+      </c>
+      <c r="E173" t="n">
+        <v>215</v>
+      </c>
+      <c r="F173" t="n">
+        <v>12</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>new-york-giants</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>philadelphia-eagles</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>155</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-180</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>jacksonville-jaguars</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>atlanta-falcons</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>100</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F175" t="n">
+        <v>12</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>houston-texans</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>new-york-jets</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>-145</v>
+      </c>
+      <c r="E176" t="n">
+        <v>125</v>
+      </c>
+      <c r="F176" t="n">
+        <v>12</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>denver-broncos</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>los-angeles-chargers</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>125</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-145</v>
+      </c>
+      <c r="F177" t="n">
+        <v>12</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>green-bay-packers</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-115</v>
+      </c>
+      <c r="F178" t="n">
+        <v>12</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>minnesota-vikings</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>-170</v>
+      </c>
+      <c r="E179" t="n">
+        <v>150</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>baltimore-ravens</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>cleveland-browns</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>-190</v>
+      </c>
+      <c r="E180" t="n">
+        <v>160</v>
+      </c>
+      <c r="F180" t="n">
+        <v>12</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>washington-football-team</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>seattle-seahawks</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E181" t="n">
+        <v>100</v>
+      </c>
+      <c r="F181" t="n">
+        <v>12</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>new-orleans-saints</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>225</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-280</v>
+      </c>
+      <c r="F182" t="n">
+        <v>13</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>atlanta-falcons</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>385</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-525</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>chicago-bears</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>arizona-cardinals</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>245</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-310</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>los-angeles-chargers</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>-165</v>
+      </c>
+      <c r="E185" t="n">
+        <v>145</v>
+      </c>
+      <c r="F185" t="n">
+        <v>13</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>detroit-lions</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>minnesota-vikings</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>230</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-290</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>miami-dolphins</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>new-york-giants</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>-260</v>
+      </c>
+      <c r="E187" t="n">
+        <v>210</v>
+      </c>
+      <c r="F187" t="n">
+        <v>13</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>new-york-jets</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>philadelphia-eagles</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>200</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-250</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>houston-texans</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>indianapolis-colts</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>340</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-450</v>
+      </c>
+      <c r="F189" t="n">
+        <v>13</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>washington-football-team</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>-125</v>
+      </c>
+      <c r="E190" t="n">
+        <v>105</v>
+      </c>
+      <c r="F190" t="n">
+        <v>13</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>jacksonville-jaguars</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>-675</v>
+      </c>
+      <c r="E191" t="n">
+        <v>475</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>baltimore-ravens</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>165</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-195</v>
+      </c>
+      <c r="F192" t="n">
+        <v>13</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>seattle-seahawks</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>150</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-170</v>
+      </c>
+      <c r="F193" t="n">
+        <v>13</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>denver-broncos</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>-410</v>
+      </c>
+      <c r="E194" t="n">
+        <v>310</v>
+      </c>
+      <c r="F194" t="n">
+        <v>13</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>new-england-patriots</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>-150</v>
+      </c>
+      <c r="E195" t="n">
+        <v>130</v>
+      </c>
+      <c r="F195" t="n">
+        <v>13</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5703,6 +5703,384 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>minnesota-vikings</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>-170</v>
+      </c>
+      <c r="E196" t="n">
+        <v>150</v>
+      </c>
+      <c r="F196" t="n">
+        <v>14</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>cleveland-browns</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>baltimore-ravens</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>-140</v>
+      </c>
+      <c r="E197" t="n">
+        <v>120</v>
+      </c>
+      <c r="F197" t="n">
+        <v>14</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>tennessee-titans</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>jacksonville-jaguars</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E198" t="n">
+        <v>320</v>
+      </c>
+      <c r="F198" t="n">
+        <v>14</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>-475</v>
+      </c>
+      <c r="E199" t="n">
+        <v>350</v>
+      </c>
+      <c r="F199" t="n">
+        <v>14</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>new-york-jets</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>new-orleans-saints</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>190</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-235</v>
+      </c>
+      <c r="F200" t="n">
+        <v>14</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>washington-football-team</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>175</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F201" t="n">
+        <v>14</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>carolina-panthers</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>atlanta-falcons</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>-145</v>
+      </c>
+      <c r="E202" t="n">
+        <v>125</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>houston-texans</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>seattle-seahawks</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>320</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-425</v>
+      </c>
+      <c r="F203" t="n">
+        <v>14</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>denver-broncos</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>detroit-lions</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>-600</v>
+      </c>
+      <c r="E204" t="n">
+        <v>435</v>
+      </c>
+      <c r="F204" t="n">
+        <v>14</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>los-angeles-chargers</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>new-york-giants</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E205" t="n">
+        <v>300</v>
+      </c>
+      <c r="F205" t="n">
+        <v>14</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>105</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-125</v>
+      </c>
+      <c r="F206" t="n">
+        <v>14</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>-165</v>
+      </c>
+      <c r="E207" t="n">
+        <v>145</v>
+      </c>
+      <c r="F207" t="n">
+        <v>14</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>green-bay-packers</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>chicago-bears</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>-600</v>
+      </c>
+      <c r="E208" t="n">
+        <v>435</v>
+      </c>
+      <c r="F208" t="n">
+        <v>14</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>arizona-cardinals</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>-135</v>
+      </c>
+      <c r="E209" t="n">
+        <v>115</v>
+      </c>
+      <c r="F209" t="n">
+        <v>14</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6081,6 +6081,438 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>los-angeles-chargers</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>150</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-170</v>
+      </c>
+      <c r="F210" t="n">
+        <v>15</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>indianapolis-colts</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>new-england-patriots</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E211" t="n">
+        <v>100</v>
+      </c>
+      <c r="F211" t="n">
+        <v>15</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>carolina-panthers</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>-900</v>
+      </c>
+      <c r="E212" t="n">
+        <v>600</v>
+      </c>
+      <c r="F212" t="n">
+        <v>15</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>miami-dolphins</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>new-york-jets</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>-475</v>
+      </c>
+      <c r="E213" t="n">
+        <v>350</v>
+      </c>
+      <c r="F213" t="n">
+        <v>15</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>detroit-lions</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>arizona-cardinals</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>525</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-760</v>
+      </c>
+      <c r="F214" t="n">
+        <v>15</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>new-york-giants</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>425</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-590</v>
+      </c>
+      <c r="F215" t="n">
+        <v>15</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>tennessee-titans</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E216" t="n">
+        <v>100</v>
+      </c>
+      <c r="F216" t="n">
+        <v>15</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>jacksonville-jaguars</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>houston-texans</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>-265</v>
+      </c>
+      <c r="E217" t="n">
+        <v>215</v>
+      </c>
+      <c r="F217" t="n">
+        <v>15</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>denver-broncos</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>-135</v>
+      </c>
+      <c r="E218" t="n">
+        <v>115</v>
+      </c>
+      <c r="F218" t="n">
+        <v>15</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>atlanta-falcons</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>-425</v>
+      </c>
+      <c r="E219" t="n">
+        <v>320</v>
+      </c>
+      <c r="F219" t="n">
+        <v>15</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>baltimore-ravens</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>green-bay-packers</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>310</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-410</v>
+      </c>
+      <c r="F220" t="n">
+        <v>15</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>new-orleans-saints</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>-630</v>
+      </c>
+      <c r="E221" t="n">
+        <v>450</v>
+      </c>
+      <c r="F221" t="n">
+        <v>15</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>cleveland-browns</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>125</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-145</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>chicago-bears</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>minnesota-vikings</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>240</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-305</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>philadelphia-eagles</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>washington-football-team</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>-475</v>
+      </c>
+      <c r="E224" t="n">
+        <v>350</v>
+      </c>
+      <c r="F224" t="n">
+        <v>15</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>seattle-seahawks</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E225" t="n">
+        <v>270</v>
+      </c>
+      <c r="F225" t="n">
+        <v>15</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8395,6 +8395,72 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Titans</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>49ers</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>155</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-180</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G242" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H242" t="n">
+        <v>16</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Packers</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Browns</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>-320</v>
+      </c>
+      <c r="E243" t="n">
+        <v>250</v>
+      </c>
+      <c r="F243" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G243" t="n">
+        <v>46</v>
+      </c>
+      <c r="H243" t="n">
+        <v>16</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7873,12 +7873,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Titans</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>49ers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -7891,7 +7891,7 @@
         <v>3.5</v>
       </c>
       <c r="G226" t="n">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="H226" t="n">
         <v>16</v>
@@ -7906,25 +7906,25 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Packers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Browns</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-350</v>
+        <v>-365</v>
       </c>
       <c r="E227" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F227" t="n">
         <v>7.5</v>
       </c>
       <c r="G227" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H227" t="n">
         <v>16</v>
@@ -7939,25 +7939,25 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Cardinals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Colts</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-120</v>
+        <v>-165</v>
       </c>
       <c r="E228" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="H228" t="n">
         <v>16</v>
@@ -7972,22 +7972,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Falcons</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Lions</t>
+          <t>detroit-lions</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-250</v>
+        <v>-365</v>
       </c>
       <c r="E229" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="F229" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G229" t="n">
         <v>43</v>
@@ -8005,25 +8005,25 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Bengals</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Ravens</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-160</v>
+        <v>-380</v>
       </c>
       <c r="E230" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="F230" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="G230" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H230" t="n">
         <v>16</v>
@@ -8038,22 +8038,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Vikings</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Rams</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E231" t="n">
-        <v>-190</v>
+        <v>-170</v>
       </c>
       <c r="F231" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G231" t="n">
         <v>49</v>
@@ -8071,22 +8071,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Patriots</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Bills</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-135</v>
+        <v>-120</v>
       </c>
       <c r="E232" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F232" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
         <v>43.5</v>
@@ -8104,25 +8104,25 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Jets</t>
+          <t>new-york-jets</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Jaguars</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-110</v>
+        <v>-130</v>
       </c>
       <c r="E233" t="n">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G233" t="n">
-        <v>41.5</v>
+        <v>43</v>
       </c>
       <c r="H233" t="n">
         <v>16</v>
@@ -8137,25 +8137,25 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Eagles</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Giants</t>
+          <t>new-york-giants</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-380</v>
+        <v>-550</v>
       </c>
       <c r="E234" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="F234" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G234" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="H234" t="n">
         <v>16</v>
@@ -8170,25 +8170,25 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Panthers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Buccaneers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="E235" t="n">
-        <v>-450</v>
+        <v>-550</v>
       </c>
       <c r="F235" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="G235" t="n">
-        <v>42.5</v>
+        <v>44</v>
       </c>
       <c r="H235" t="n">
         <v>16</v>
@@ -8203,25 +8203,25 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Texans</t>
+          <t>houston-texans</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Chargers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="E236" t="n">
-        <v>-450</v>
+        <v>-650</v>
       </c>
       <c r="F236" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G236" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="H236" t="n">
         <v>16</v>
@@ -8236,25 +8236,25 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Seahawks</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Bears</t>
+          <t>chicago-bears</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-280</v>
+        <v>-335</v>
       </c>
       <c r="E237" t="n">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="F237" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G237" t="n">
-        <v>43</v>
+        <v>41.5</v>
       </c>
       <c r="H237" t="n">
         <v>16</v>
@@ -8269,25 +8269,25 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Chiefs</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Steelers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-410</v>
+        <v>-450</v>
       </c>
       <c r="E238" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="F238" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H238" t="n">
         <v>16</v>
@@ -8302,25 +8302,25 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Raiders</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Broncos</t>
+          <t>denver-broncos</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="E239" t="n">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F239" t="n">
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="H239" t="n">
         <v>16</v>
@@ -8335,12 +8335,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Cowboys</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>washington-football-team</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -8350,10 +8350,10 @@
         <v>350</v>
       </c>
       <c r="F240" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="G240" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H240" t="n">
         <v>16</v>
@@ -8368,96 +8368,30 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Saints</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Dolphins</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-145</v>
+        <v>135</v>
       </c>
       <c r="E241" t="n">
-        <v>125</v>
+        <v>-155</v>
       </c>
       <c r="F241" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G241" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="H241" t="n">
         <v>16</v>
       </c>
       <c r="I241" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Titans</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>49ers</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>155</v>
-      </c>
-      <c r="E242" t="n">
-        <v>-180</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G242" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="H242" t="n">
-        <v>16</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Packers</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Browns</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>-320</v>
-      </c>
-      <c r="E243" t="n">
-        <v>250</v>
-      </c>
-      <c r="F243" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G243" t="n">
-        <v>46</v>
-      </c>
-      <c r="H243" t="n">
-        <v>16</v>
-      </c>
-      <c r="I243" t="n">
         <v>2021</v>
       </c>
     </row>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8395,6 +8395,1062 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>atlanta-falcons</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>-900</v>
+      </c>
+      <c r="E242" t="n">
+        <v>600</v>
+      </c>
+      <c r="F242" t="n">
+        <v>14</v>
+      </c>
+      <c r="G242" t="n">
+        <v>44</v>
+      </c>
+      <c r="H242" t="n">
+        <v>17</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>chicago-bears</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>new-york-giants</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E243" t="n">
+        <v>200</v>
+      </c>
+      <c r="F243" t="n">
+        <v>6</v>
+      </c>
+      <c r="G243" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H243" t="n">
+        <v>17</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>185</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-225</v>
+      </c>
+      <c r="F244" t="n">
+        <v>5</v>
+      </c>
+      <c r="G244" t="n">
+        <v>50</v>
+      </c>
+      <c r="H244" t="n">
+        <v>17</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>tennessee-titans</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>miami-dolphins</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>-180</v>
+      </c>
+      <c r="E245" t="n">
+        <v>155</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G245" t="n">
+        <v>41</v>
+      </c>
+      <c r="H245" t="n">
+        <v>17</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>indianapolis-colts</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>-280</v>
+      </c>
+      <c r="E246" t="n">
+        <v>225</v>
+      </c>
+      <c r="F246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G246" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H246" t="n">
+        <v>17</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>new-england-patriots</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>jacksonville-jaguars</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>-1125</v>
+      </c>
+      <c r="E247" t="n">
+        <v>700</v>
+      </c>
+      <c r="F247" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>42</v>
+      </c>
+      <c r="H247" t="n">
+        <v>17</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>new-york-jets</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>500</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-720</v>
+      </c>
+      <c r="F248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G248" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H248" t="n">
+        <v>17</v>
+      </c>
+      <c r="I248" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>washington-football-team</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>philadelphia-eagles</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>155</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-180</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G249" t="n">
+        <v>46</v>
+      </c>
+      <c r="H249" t="n">
+        <v>17</v>
+      </c>
+      <c r="I249" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>baltimore-ravens</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>165</v>
+      </c>
+      <c r="E250" t="n">
+        <v>-195</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G250" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="H250" t="n">
+        <v>17</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>los-angeles-chargers</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>denver-broncos</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>-255</v>
+      </c>
+      <c r="E251" t="n">
+        <v>205</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6</v>
+      </c>
+      <c r="G251" t="n">
+        <v>45</v>
+      </c>
+      <c r="H251" t="n">
+        <v>17</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>houston-texans</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>-720</v>
+      </c>
+      <c r="E252" t="n">
+        <v>500</v>
+      </c>
+      <c r="F252" t="n">
+        <v>13</v>
+      </c>
+      <c r="G252" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H252" t="n">
+        <v>17</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>arizona-cardinals</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>-235</v>
+      </c>
+      <c r="E253" t="n">
+        <v>190</v>
+      </c>
+      <c r="F253" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G253" t="n">
+        <v>52</v>
+      </c>
+      <c r="H253" t="n">
+        <v>17</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>new-orleans-saints</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>carolina-panthers</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>-280</v>
+      </c>
+      <c r="E254" t="n">
+        <v>225</v>
+      </c>
+      <c r="F254" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G254" t="n">
+        <v>39</v>
+      </c>
+      <c r="H254" t="n">
+        <v>17</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>seattle-seahawks</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>detroit-lions</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>-310</v>
+      </c>
+      <c r="E255" t="n">
+        <v>245</v>
+      </c>
+      <c r="F255" t="n">
+        <v>7</v>
+      </c>
+      <c r="G255" t="n">
+        <v>43</v>
+      </c>
+      <c r="H255" t="n">
+        <v>17</v>
+      </c>
+      <c r="I255" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>green-bay-packers</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>minnesota-vikings</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>-260</v>
+      </c>
+      <c r="E256" t="n">
+        <v>210</v>
+      </c>
+      <c r="F256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G256" t="n">
+        <v>47</v>
+      </c>
+      <c r="H256" t="n">
+        <v>17</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>cleveland-browns</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>150</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-170</v>
+      </c>
+      <c r="F257" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G257" t="n">
+        <v>41</v>
+      </c>
+      <c r="H257" t="n">
+        <v>17</v>
+      </c>
+      <c r="I257" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>denver-broncos</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>425</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-590</v>
+      </c>
+      <c r="F258" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G258" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H258" t="n">
+        <v>18</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>philadelphia-eagles</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>235</v>
+      </c>
+      <c r="E259" t="n">
+        <v>-300</v>
+      </c>
+      <c r="F259" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G259" t="n">
+        <v>46</v>
+      </c>
+      <c r="H259" t="n">
+        <v>18</v>
+      </c>
+      <c r="I259" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>cleveland-browns</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>-265</v>
+      </c>
+      <c r="E260" t="n">
+        <v>215</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G260" t="n">
+        <v>38</v>
+      </c>
+      <c r="H260" t="n">
+        <v>18</v>
+      </c>
+      <c r="I260" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>detroit-lions</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>green-bay-packers</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>165</v>
+      </c>
+      <c r="E261" t="n">
+        <v>-195</v>
+      </c>
+      <c r="F261" t="n">
+        <v>4</v>
+      </c>
+      <c r="G261" t="n">
+        <v>45</v>
+      </c>
+      <c r="H261" t="n">
+        <v>18</v>
+      </c>
+      <c r="I261" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>minnesota-vikings</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>chicago-bears</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>-190</v>
+      </c>
+      <c r="E262" t="n">
+        <v>160</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G262" t="n">
+        <v>45</v>
+      </c>
+      <c r="H262" t="n">
+        <v>18</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>new-york-giants</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>washington-football-team</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>200</v>
+      </c>
+      <c r="E263" t="n">
+        <v>-250</v>
+      </c>
+      <c r="F263" t="n">
+        <v>6</v>
+      </c>
+      <c r="G263" t="n">
+        <v>36</v>
+      </c>
+      <c r="H263" t="n">
+        <v>18</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>jacksonville-jaguars</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>indianapolis-colts</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>650</v>
+      </c>
+      <c r="E264" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F264" t="n">
+        <v>14</v>
+      </c>
+      <c r="G264" t="n">
+        <v>43</v>
+      </c>
+      <c r="H264" t="n">
+        <v>18</v>
+      </c>
+      <c r="I264" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>baltimore-ravens</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>-155</v>
+      </c>
+      <c r="E265" t="n">
+        <v>135</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" t="n">
+        <v>41</v>
+      </c>
+      <c r="H265" t="n">
+        <v>18</v>
+      </c>
+      <c r="I265" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>houston-texans</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>tennessee-titans</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>410</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-575</v>
+      </c>
+      <c r="F266" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G266" t="n">
+        <v>43</v>
+      </c>
+      <c r="H266" t="n">
+        <v>18</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>atlanta-falcons</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>new-orleans-saints</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>185</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-225</v>
+      </c>
+      <c r="F267" t="n">
+        <v>5</v>
+      </c>
+      <c r="G267" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H267" t="n">
+        <v>18</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>new-york-jets</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="E268" t="n">
+        <v>750</v>
+      </c>
+      <c r="F268" t="n">
+        <v>16</v>
+      </c>
+      <c r="G268" t="n">
+        <v>43</v>
+      </c>
+      <c r="H268" t="n">
+        <v>18</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>miami-dolphins</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>new-england-patriots</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>200</v>
+      </c>
+      <c r="E269" t="n">
+        <v>-250</v>
+      </c>
+      <c r="F269" t="n">
+        <v>6</v>
+      </c>
+      <c r="G269" t="n">
+        <v>41</v>
+      </c>
+      <c r="H269" t="n">
+        <v>18</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>carolina-panthers</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>-510</v>
+      </c>
+      <c r="E270" t="n">
+        <v>375</v>
+      </c>
+      <c r="F270" t="n">
+        <v>11</v>
+      </c>
+      <c r="G270" t="n">
+        <v>43</v>
+      </c>
+      <c r="H270" t="n">
+        <v>18</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>-170</v>
+      </c>
+      <c r="E271" t="n">
+        <v>150</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3</v>
+      </c>
+      <c r="G271" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="H271" t="n">
+        <v>18</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>arizona-cardinals</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>seattle-seahawks</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>-235</v>
+      </c>
+      <c r="E272" t="n">
+        <v>190</v>
+      </c>
+      <c r="F272" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G272" t="n">
+        <v>48</v>
+      </c>
+      <c r="H272" t="n">
+        <v>18</v>
+      </c>
+      <c r="I272" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>los-angeles-chargers</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>145</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-165</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3</v>
+      </c>
+      <c r="G273" t="n">
+        <v>48</v>
+      </c>
+      <c r="H273" t="n">
+        <v>18</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9451,6 +9451,204 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>las-vegas-raiders</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>-225</v>
+      </c>
+      <c r="E274" t="n">
+        <v>185</v>
+      </c>
+      <c r="F274" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G274" t="n">
+        <v>49</v>
+      </c>
+      <c r="H274" t="n">
+        <v>19</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>new-england-patriots</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E275" t="n">
+        <v>170</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4</v>
+      </c>
+      <c r="G275" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="H275" t="n">
+        <v>19</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>philadelphia-eagles</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E276" t="n">
+        <v>300</v>
+      </c>
+      <c r="F276" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G276" t="n">
+        <v>46</v>
+      </c>
+      <c r="H276" t="n">
+        <v>19</v>
+      </c>
+      <c r="I276" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>dallas-cowboys</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>-165</v>
+      </c>
+      <c r="E277" t="n">
+        <v>145</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3</v>
+      </c>
+      <c r="G277" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="H277" t="n">
+        <v>19</v>
+      </c>
+      <c r="I277" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>pittsburgh-steelers</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>-675</v>
+      </c>
+      <c r="E278" t="n">
+        <v>475</v>
+      </c>
+      <c r="F278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G278" t="n">
+        <v>46</v>
+      </c>
+      <c r="H278" t="n">
+        <v>19</v>
+      </c>
+      <c r="I278" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>arizona-cardinals</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>-190</v>
+      </c>
+      <c r="E279" t="n">
+        <v>160</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G279" t="n">
+        <v>49</v>
+      </c>
+      <c r="H279" t="n">
+        <v>19</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/odds/nfl odds 2021-22.xlsx
+++ b/backend/data/odds/nfl odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9466,16 +9466,16 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-225</v>
+        <v>-280</v>
       </c>
       <c r="E274" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="F274" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="G274" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="H274" t="n">
         <v>19</v>
@@ -9499,16 +9499,16 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-200</v>
+        <v>-210</v>
       </c>
       <c r="E275" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F275" t="n">
         <v>4</v>
       </c>
       <c r="G275" t="n">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="H275" t="n">
         <v>19</v>
@@ -9532,16 +9532,16 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>-400</v>
+        <v>-335</v>
       </c>
       <c r="E276" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="F276" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="G276" t="n">
-        <v>46</v>
+        <v>47.5</v>
       </c>
       <c r="H276" t="n">
         <v>19</v>
@@ -9565,16 +9565,16 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-165</v>
+        <v>-170</v>
       </c>
       <c r="E277" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F277" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G277" t="n">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="H277" t="n">
         <v>19</v>
@@ -9598,16 +9598,16 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-675</v>
+        <v>-600</v>
       </c>
       <c r="E278" t="n">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="F278" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="G278" t="n">
-        <v>46</v>
+        <v>46.5</v>
       </c>
       <c r="H278" t="n">
         <v>19</v>
@@ -9631,10 +9631,10 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-190</v>
+        <v>-170</v>
       </c>
       <c r="E279" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F279" t="n">
         <v>3.5</v>
@@ -9646,6 +9646,237 @@
         <v>19</v>
       </c>
       <c r="I279" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>tennessee-titans</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E280" t="n">
+        <v>170</v>
+      </c>
+      <c r="F280" t="n">
+        <v>4</v>
+      </c>
+      <c r="G280" t="n">
+        <v>48</v>
+      </c>
+      <c r="H280" t="n">
+        <v>20</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>green-bay-packers</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>-240</v>
+      </c>
+      <c r="E281" t="n">
+        <v>195</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G281" t="n">
+        <v>47</v>
+      </c>
+      <c r="H281" t="n">
+        <v>20</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>tampa-bay-buccaneers</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>-140</v>
+      </c>
+      <c r="E282" t="n">
+        <v>120</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G282" t="n">
+        <v>48</v>
+      </c>
+      <c r="H282" t="n">
+        <v>20</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>buffalo-bills</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>-130</v>
+      </c>
+      <c r="E283" t="n">
+        <v>110</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G283" t="n">
+        <v>54</v>
+      </c>
+      <c r="H283" t="n">
+        <v>20</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>kansas-city-chiefs</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E284" t="n">
+        <v>270</v>
+      </c>
+      <c r="F284" t="n">
+        <v>7</v>
+      </c>
+      <c r="G284" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="H284" t="n">
+        <v>21</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>san-francisco-49ers</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>-180</v>
+      </c>
+      <c r="E285" t="n">
+        <v>155</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H285" t="n">
+        <v>21</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>cincinnati-bengals</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>los-angeles-rams</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>170</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-200</v>
+      </c>
+      <c r="F286" t="n">
+        <v>4</v>
+      </c>
+      <c r="G286" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="H286" t="n">
+        <v>22</v>
+      </c>
+      <c r="I286" t="n">
         <v>2021</v>
       </c>
     </row>
